--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
@@ -498,12 +498,12 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -786,7 +787,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -822,7 +823,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -858,7 +859,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -892,7 +893,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -928,7 +929,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -964,7 +965,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1004,7 +1005,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1060,7 +1061,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1096,7 +1097,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1132,7 +1133,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1168,7 +1169,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1204,7 +1205,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1240,7 +1241,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1276,7 +1277,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1312,7 +1313,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1348,7 +1349,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1382,7 +1383,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1454,7 +1455,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1510,7 +1511,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1546,7 +1547,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1582,7 +1583,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1618,7 +1619,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1654,7 +1655,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1690,7 +1691,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1730,7 +1731,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1766,7 +1767,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1802,7 +1803,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1836,7 +1837,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1872,7 +1873,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1908,7 +1909,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -1964,7 +1965,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2000,7 +2001,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2036,7 +2037,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2072,7 +2073,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2108,7 +2109,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2144,7 +2145,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2180,7 +2181,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2216,7 +2217,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2252,7 +2253,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2286,7 +2287,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2322,7 +2323,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2358,7 +2359,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2414,7 +2415,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2450,7 +2451,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2486,7 +2487,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2522,7 +2523,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2558,7 +2559,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2594,7 +2595,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2630,7 +2631,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2666,7 +2667,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2702,7 +2703,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2736,7 +2737,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2772,7 +2773,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2808,7 +2809,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2864,7 +2865,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2900,7 +2901,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2936,7 +2937,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2972,7 +2973,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3008,7 +3009,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3044,7 +3045,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3080,7 +3081,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3116,7 +3117,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3152,7 +3153,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3186,7 +3187,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3222,7 +3223,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3258,7 +3259,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3314,7 +3315,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3350,7 +3351,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3386,7 +3387,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3422,7 +3423,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3458,7 +3459,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3494,7 +3495,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3530,7 +3531,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3566,7 +3567,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3602,7 +3603,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3636,7 +3637,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3672,7 +3673,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3708,7 +3709,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3764,7 +3765,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3800,7 +3801,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3836,7 +3837,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3872,7 +3873,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3908,7 +3909,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3944,7 +3945,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3980,7 +3981,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4016,7 +4017,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4052,7 +4053,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4086,7 +4087,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4122,7 +4123,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4158,7 +4159,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4214,7 +4215,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4250,7 +4251,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4286,7 +4287,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4322,7 +4323,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4358,7 +4359,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4394,7 +4395,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4434,7 +4435,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4470,7 +4471,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4506,7 +4507,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4540,7 +4541,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4576,7 +4577,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4612,7 +4613,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4668,7 +4669,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4704,7 +4705,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4740,7 +4741,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4776,7 +4777,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4812,7 +4813,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4848,7 +4849,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4888,7 +4889,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4924,7 +4925,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4960,7 +4961,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4994,7 +4995,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5030,7 +5031,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5066,7 +5067,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5122,7 +5123,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5158,7 +5159,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5230,7 +5231,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5266,7 +5267,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5302,7 +5303,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5338,7 +5339,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5374,7 +5375,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5410,7 +5411,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5444,7 +5445,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5480,7 +5481,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5516,7 +5517,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5572,7 +5573,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5608,7 +5609,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5644,7 +5645,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5680,7 +5681,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5716,7 +5717,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5752,7 +5753,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5790,7 +5791,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5826,7 +5827,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5862,7 +5863,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5898,7 +5899,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5934,7 +5935,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5968,7 +5969,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6002,7 +6003,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6038,7 +6039,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6074,7 +6075,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -6114,7 +6115,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6170,7 +6171,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6206,7 +6207,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6242,7 +6243,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6278,7 +6279,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6314,7 +6315,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6350,7 +6351,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6388,7 +6389,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6424,7 +6425,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6460,7 +6461,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6496,7 +6497,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6532,7 +6533,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6566,7 +6567,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6600,7 +6601,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6636,7 +6637,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6672,7 +6673,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -6712,7 +6713,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6768,7 +6769,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6804,7 +6805,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6840,7 +6841,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6876,7 +6877,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6912,7 +6913,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6948,7 +6949,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6986,7 +6987,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7022,7 +7023,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7058,7 +7059,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7094,7 +7095,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7130,7 +7131,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7164,7 +7165,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7198,7 +7199,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7234,7 +7235,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7270,7 +7271,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7310,7 +7311,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7366,7 +7367,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7402,7 +7403,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7438,7 +7439,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7474,7 +7475,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7510,7 +7511,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7546,7 +7547,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7584,7 +7585,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7620,7 +7621,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7656,7 +7657,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7692,7 +7693,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7728,7 +7729,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7762,7 +7763,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7796,7 +7797,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7832,7 +7833,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7868,7 +7869,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -7908,7 +7909,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7964,7 +7965,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8000,7 +8001,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8036,7 +8037,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8072,7 +8073,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8108,7 +8109,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8144,7 +8145,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8182,7 +8183,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8218,7 +8219,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8254,7 +8255,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8290,7 +8291,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8326,7 +8327,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8360,7 +8361,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8394,7 +8395,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8430,7 +8431,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8466,7 +8467,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8506,7 +8507,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8562,7 +8563,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8598,7 +8599,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8634,7 +8635,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8670,7 +8671,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8706,7 +8707,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8742,7 +8743,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8780,7 +8781,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8816,7 +8817,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8852,7 +8853,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8888,7 +8889,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8924,7 +8925,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8958,7 +8959,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43049</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8994,7 +8995,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9028,7 +9029,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9064,7 +9065,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9100,7 +9101,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C230" t="inlineStr">
@@ -9140,7 +9141,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43118</v>
       </c>
       <c r="C231" t="inlineStr">
@@ -9180,7 +9181,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C232" t="inlineStr">
@@ -9236,7 +9237,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9272,7 +9273,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9308,7 +9309,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9344,7 +9345,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9380,7 +9381,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9416,7 +9417,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9454,7 +9455,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9490,7 +9491,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9526,7 +9527,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9562,7 +9563,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9598,7 +9599,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9632,7 +9633,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9670,7 +9671,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9706,7 +9707,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9742,7 +9743,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C247" t="inlineStr">
@@ -9782,7 +9783,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43118</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -9822,7 +9823,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C249" t="inlineStr">
@@ -9878,7 +9879,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9914,7 +9915,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9950,7 +9951,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9986,7 +9987,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10022,7 +10023,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10058,7 +10059,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10096,7 +10097,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10132,7 +10133,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10168,7 +10169,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10204,7 +10205,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10240,7 +10241,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10274,7 +10275,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10312,7 +10313,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10348,7 +10349,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10384,7 +10385,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C264" t="inlineStr">
@@ -10424,7 +10425,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43118</v>
       </c>
       <c r="C265" t="inlineStr">
@@ -10464,7 +10465,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -10520,7 +10521,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10556,7 +10557,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10592,7 +10593,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10628,7 +10629,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10664,7 +10665,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10700,7 +10701,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10738,7 +10739,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10774,7 +10775,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10810,7 +10811,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10846,7 +10847,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10882,7 +10883,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10916,7 +10917,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10950,7 +10951,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10986,7 +10987,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11022,7 +11023,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C281" t="inlineStr">
@@ -11062,7 +11063,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C282" t="inlineStr">
@@ -11118,7 +11119,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11154,7 +11155,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11190,7 +11191,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11226,7 +11227,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11262,7 +11263,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11298,7 +11299,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11336,7 +11337,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11372,7 +11373,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11408,7 +11409,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11444,7 +11445,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11480,7 +11481,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11514,7 +11515,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11552,7 +11553,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11588,7 +11589,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11624,7 +11625,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C297" t="inlineStr">
@@ -11664,7 +11665,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43118</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11704,7 +11705,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C299" t="inlineStr">
@@ -11760,7 +11761,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11796,7 +11797,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11832,7 +11833,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11868,7 +11869,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11904,7 +11905,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11940,7 +11941,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11978,7 +11979,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12014,7 +12015,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12050,7 +12051,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12086,7 +12087,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12122,7 +12123,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12156,7 +12157,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12190,7 +12191,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12226,7 +12227,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12262,7 +12263,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C314" t="inlineStr">
@@ -12302,7 +12303,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C315" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +501,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -567,7 +566,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -603,7 +602,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -639,7 +638,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -675,7 +674,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -711,7 +710,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -747,7 +746,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -787,7 +786,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -823,7 +822,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -859,7 +858,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -893,7 +892,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -929,7 +928,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -965,7 +964,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1005,7 +1004,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1061,7 +1060,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1097,7 +1096,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1133,7 +1132,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1169,7 +1168,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1205,7 +1204,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1241,7 +1240,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1277,7 +1276,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1313,7 +1312,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1349,7 +1348,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1383,7 +1382,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1419,7 +1418,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1455,7 +1454,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1511,7 +1510,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1547,7 +1546,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1583,7 +1582,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1619,7 +1618,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1655,7 +1654,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1691,7 +1690,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1731,7 +1730,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1767,7 +1766,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1803,7 +1802,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1837,7 +1836,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1873,7 +1872,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1909,7 +1908,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -1965,7 +1964,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2001,7 +2000,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2037,7 +2036,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2073,7 +2072,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2109,7 +2108,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2145,7 +2144,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2181,7 +2180,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2217,7 +2216,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2253,7 +2252,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2287,7 +2286,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2323,7 +2322,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2359,7 +2358,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2415,7 +2414,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2451,7 +2450,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2487,7 +2486,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2523,7 +2522,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2559,7 +2558,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2595,7 +2594,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2631,7 +2630,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2667,7 +2666,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2703,7 +2702,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2737,7 +2736,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2773,7 +2772,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2809,7 +2808,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2865,7 +2864,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2901,7 +2900,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2937,7 +2936,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2973,7 +2972,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3009,7 +3008,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3045,7 +3044,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3081,7 +3080,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3117,7 +3116,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3153,7 +3152,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3187,7 +3186,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3223,7 +3222,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3259,7 +3258,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3315,7 +3314,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3351,7 +3350,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3387,7 +3386,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3423,7 +3422,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3459,7 +3458,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3495,7 +3494,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3531,7 +3530,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3567,7 +3566,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3603,7 +3602,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3637,7 +3636,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3673,7 +3672,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3709,7 +3708,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3765,7 +3764,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3801,7 +3800,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3837,7 +3836,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3873,7 +3872,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3909,7 +3908,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3945,7 +3944,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3981,7 +3980,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4017,7 +4016,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4053,7 +4052,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4087,7 +4086,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4123,7 +4122,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4159,7 +4158,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4215,7 +4214,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4251,7 +4250,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4287,7 +4286,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4323,7 +4322,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4359,7 +4358,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4395,7 +4394,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4435,7 +4434,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4471,7 +4470,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4507,7 +4506,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4541,7 +4540,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4577,7 +4576,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4613,7 +4612,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4669,7 +4668,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4705,7 +4704,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4741,7 +4740,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4777,7 +4776,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4813,7 +4812,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4849,7 +4848,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4889,7 +4888,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4925,7 +4924,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4961,7 +4960,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4995,7 +4994,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5031,7 +5030,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5067,7 +5066,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5123,7 +5122,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5159,7 +5158,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5195,7 +5194,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5231,7 +5230,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5267,7 +5266,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5303,7 +5302,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5339,7 +5338,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5375,7 +5374,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5411,7 +5410,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5445,7 +5444,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5481,7 +5480,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5517,7 +5516,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5573,7 +5572,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5609,7 +5608,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5645,7 +5644,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5681,7 +5680,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5717,7 +5716,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5753,7 +5752,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5791,7 +5790,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5827,7 +5826,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5863,7 +5862,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5899,7 +5898,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5935,7 +5934,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5969,7 +5968,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6003,7 +6002,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6039,7 +6038,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6075,7 +6074,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -6115,7 +6114,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6171,7 +6170,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6207,7 +6206,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6243,7 +6242,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6279,7 +6278,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6315,7 +6314,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6351,7 +6350,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6389,7 +6388,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6425,7 +6424,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6461,7 +6460,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6497,7 +6496,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6533,7 +6532,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6567,7 +6566,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6601,7 +6600,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6637,7 +6636,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6673,7 +6672,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -6713,7 +6712,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6769,7 +6768,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6805,7 +6804,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6841,7 +6840,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6877,7 +6876,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6913,7 +6912,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6949,7 +6948,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6987,7 +6986,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7023,7 +7022,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7059,7 +7058,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7095,7 +7094,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7131,7 +7130,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7165,7 +7164,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7199,7 +7198,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7235,7 +7234,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7271,7 +7270,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7311,7 +7310,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7367,7 +7366,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7403,7 +7402,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7439,7 +7438,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7475,7 +7474,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7511,7 +7510,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7547,7 +7546,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7585,7 +7584,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7621,7 +7620,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7657,7 +7656,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7693,7 +7692,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7729,7 +7728,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7763,7 +7762,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7797,7 +7796,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7833,7 +7832,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7869,7 +7868,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -7909,7 +7908,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7965,7 +7964,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8001,7 +8000,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8037,7 +8036,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8073,7 +8072,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8109,7 +8108,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8145,7 +8144,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8183,7 +8182,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8219,7 +8218,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8255,7 +8254,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8291,7 +8290,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8327,7 +8326,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8361,7 +8360,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8395,7 +8394,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8431,7 +8430,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8467,7 +8466,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8507,7 +8506,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8563,7 +8562,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8599,7 +8598,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8635,7 +8634,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8671,7 +8670,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8707,7 +8706,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8743,7 +8742,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8781,7 +8780,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8817,7 +8816,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8853,7 +8852,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8889,7 +8888,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8925,7 +8924,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8959,7 +8958,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>43049</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8995,7 +8994,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9029,7 +9028,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9065,7 +9064,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9101,7 +9100,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C230" t="inlineStr">
@@ -9141,7 +9140,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>43118</v>
       </c>
       <c r="C231" t="inlineStr">
@@ -9181,7 +9180,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C232" t="inlineStr">
@@ -9237,7 +9236,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9273,7 +9272,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9309,7 +9308,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9345,7 +9344,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9381,7 +9380,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9417,7 +9416,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9455,7 +9454,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9491,7 +9490,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9527,7 +9526,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9563,7 +9562,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9599,7 +9598,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9633,7 +9632,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9671,7 +9670,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9707,7 +9706,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9743,7 +9742,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C247" t="inlineStr">
@@ -9783,7 +9782,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>43118</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -9823,7 +9822,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C249" t="inlineStr">
@@ -9879,7 +9878,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9915,7 +9914,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9951,7 +9950,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9987,7 +9986,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10023,7 +10022,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10059,7 +10058,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10097,7 +10096,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10133,7 +10132,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10169,7 +10168,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10205,7 +10204,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B259" s="4" t="n">
+      <c r="B259" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10241,7 +10240,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B260" s="4" t="n">
+      <c r="B260" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10275,7 +10274,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B261" s="4" t="n">
+      <c r="B261" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10313,7 +10312,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B262" s="4" t="n">
+      <c r="B262" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10349,7 +10348,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n">
+      <c r="B263" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10385,7 +10384,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B264" s="4" t="n">
+      <c r="B264" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C264" t="inlineStr">
@@ -10425,7 +10424,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B265" s="4" t="n">
+      <c r="B265" s="3" t="n">
         <v>43118</v>
       </c>
       <c r="C265" t="inlineStr">
@@ -10465,7 +10464,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B266" s="4" t="n">
+      <c r="B266" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -10521,7 +10520,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B267" s="4" t="n">
+      <c r="B267" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10557,7 +10556,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B268" s="4" t="n">
+      <c r="B268" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10593,7 +10592,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B269" s="4" t="n">
+      <c r="B269" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10629,7 +10628,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10665,7 +10664,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10701,7 +10700,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10739,7 +10738,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10775,7 +10774,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10811,7 +10810,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10847,7 +10846,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10883,7 +10882,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10917,7 +10916,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10951,7 +10950,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10987,7 +10986,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11023,7 +11022,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C281" t="inlineStr">
@@ -11063,7 +11062,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C282" t="inlineStr">
@@ -11119,7 +11118,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11155,7 +11154,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11191,7 +11190,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11227,7 +11226,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11263,7 +11262,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11299,7 +11298,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11337,7 +11336,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11373,7 +11372,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n">
+      <c r="B290" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11409,7 +11408,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B291" s="4" t="n">
+      <c r="B291" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11445,7 +11444,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B292" s="4" t="n">
+      <c r="B292" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11481,7 +11480,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B293" s="4" t="n">
+      <c r="B293" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11515,7 +11514,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B294" s="4" t="n">
+      <c r="B294" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11553,7 +11552,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B295" s="4" t="n">
+      <c r="B295" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11589,7 +11588,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B296" s="4" t="n">
+      <c r="B296" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11625,7 +11624,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B297" s="4" t="n">
+      <c r="B297" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C297" t="inlineStr">
@@ -11665,7 +11664,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B298" s="4" t="n">
+      <c r="B298" s="3" t="n">
         <v>43118</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11705,7 +11704,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B299" s="4" t="n">
+      <c r="B299" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C299" t="inlineStr">
@@ -11761,7 +11760,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B300" s="4" t="n">
+      <c r="B300" s="3" t="n">
         <v>42901</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11797,7 +11796,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B301" s="4" t="n">
+      <c r="B301" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11833,7 +11832,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B302" s="4" t="n">
+      <c r="B302" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11869,7 +11868,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B303" s="4" t="n">
+      <c r="B303" s="3" t="n">
         <v>42930</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11905,7 +11904,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B304" s="4" t="n">
+      <c r="B304" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11941,7 +11940,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B305" s="4" t="n">
+      <c r="B305" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11979,7 +11978,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B306" s="4" t="n">
+      <c r="B306" s="3" t="n">
         <v>42983</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12015,7 +12014,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B307" s="4" t="n">
+      <c r="B307" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12051,7 +12050,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B308" s="4" t="n">
+      <c r="B308" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12087,7 +12086,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B309" s="4" t="n">
+      <c r="B309" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12123,7 +12122,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B310" s="4" t="n">
+      <c r="B310" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12157,7 +12156,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B311" s="4" t="n">
+      <c r="B311" s="3" t="n">
         <v>43061</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12191,7 +12190,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B312" s="4" t="n">
+      <c r="B312" s="3" t="n">
         <v>43063</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12227,7 +12226,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B313" s="4" t="n">
+      <c r="B313" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12263,7 +12262,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B314" s="4" t="n">
+      <c r="B314" s="3" t="n">
         <v>43112</v>
       </c>
       <c r="C314" t="inlineStr">
@@ -12303,7 +12302,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B315" s="4" t="n">
+      <c r="B315" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C315" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-01-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -786,7 +787,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -822,7 +823,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -858,7 +859,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -892,7 +893,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -928,7 +929,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -964,7 +965,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1004,7 +1005,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -1060,7 +1061,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1096,7 +1097,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1132,7 +1133,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1168,7 +1169,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1204,7 +1205,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1240,7 +1241,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1276,7 +1277,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1312,7 +1313,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1348,7 +1349,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1382,7 +1383,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1454,7 +1455,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvADV11.9419</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -1510,7 +1511,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1546,7 +1547,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1582,7 +1583,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1618,7 +1619,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1654,7 +1655,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1690,7 +1691,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1730,7 +1731,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1766,7 +1767,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1802,7 +1803,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1836,7 +1837,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1872,7 +1873,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1908,7 +1909,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -1964,7 +1965,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2000,7 +2001,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2036,7 +2037,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2072,7 +2073,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2108,7 +2109,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2144,7 +2145,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2180,7 +2181,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2216,7 +2217,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2252,7 +2253,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2286,7 +2287,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2322,7 +2323,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2358,7 +2359,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvGenius</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2414,7 +2415,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2450,7 +2451,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2486,7 +2487,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2522,7 +2523,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2558,7 +2559,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2594,7 +2595,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2630,7 +2631,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2666,7 +2667,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2702,7 +2703,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2736,7 +2737,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2772,7 +2773,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2808,7 +2809,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -2864,7 +2865,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2900,7 +2901,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2936,7 +2937,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2972,7 +2973,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3008,7 +3009,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3044,7 +3045,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3080,7 +3081,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3116,7 +3117,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3152,7 +3153,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3186,7 +3187,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3222,7 +3223,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3258,7 +3259,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-001</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3314,7 +3315,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3350,7 +3351,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3386,7 +3387,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3422,7 +3423,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3458,7 +3459,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3494,7 +3495,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3530,7 +3531,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3566,7 +3567,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3602,7 +3603,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3636,7 +3637,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3672,7 +3673,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3708,7 +3709,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3764,7 +3765,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3800,7 +3801,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3836,7 +3837,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3872,7 +3873,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3908,7 +3909,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3944,7 +3945,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3980,7 +3981,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4016,7 +4017,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4052,7 +4053,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4086,7 +4087,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4122,7 +4123,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4158,7 +4159,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvAGTW-002</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4214,7 +4215,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4250,7 +4251,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4286,7 +4287,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4322,7 +4323,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4358,7 +4359,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4394,7 +4395,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4434,7 +4435,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4470,7 +4471,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4506,7 +4507,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4540,7 +4541,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4576,7 +4577,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4612,7 +4613,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4668,7 +4669,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4704,7 +4705,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4740,7 +4741,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4776,7 +4777,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4812,7 +4813,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4848,7 +4849,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4888,7 +4889,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4924,7 +4925,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4960,7 +4961,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4994,7 +4995,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5030,7 +5031,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5066,7 +5067,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvRevenue</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5122,7 +5123,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5158,7 +5159,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5230,7 +5231,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5266,7 +5267,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5302,7 +5303,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5338,7 +5339,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5374,7 +5375,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5410,7 +5411,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5444,7 +5445,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5480,7 +5481,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5516,7 +5517,7 @@
           <t>FAR HYC W17-01-2MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5572,7 +5573,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5608,7 +5609,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5644,7 +5645,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5680,7 +5681,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5716,7 +5717,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5752,7 +5753,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5790,7 +5791,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5826,7 +5827,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5862,7 +5863,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5898,7 +5899,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5934,7 +5935,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5968,7 +5969,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6002,7 +6003,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6038,7 +6039,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6074,7 +6075,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -6114,7 +6115,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-002</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -6170,7 +6171,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6206,7 +6207,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6242,7 +6243,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6278,7 +6279,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6314,7 +6315,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6350,7 +6351,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6388,7 +6389,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6424,7 +6425,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6460,7 +6461,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6496,7 +6497,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6532,7 +6533,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6566,7 +6567,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6600,7 +6601,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6636,7 +6637,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6672,7 +6673,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -6712,7 +6713,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAGTW-001</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6768,7 +6769,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6804,7 +6805,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6840,7 +6841,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6876,7 +6877,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6912,7 +6913,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6948,7 +6949,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6986,7 +6987,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7022,7 +7023,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7058,7 +7059,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7094,7 +7095,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7130,7 +7131,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7164,7 +7165,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7198,7 +7199,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7234,7 +7235,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7270,7 +7271,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C181" t="inlineStr">
@@ -7310,7 +7311,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C182" t="inlineStr">
@@ -7366,7 +7367,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7402,7 +7403,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7438,7 +7439,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7474,7 +7475,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7510,7 +7511,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7546,7 +7547,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7584,7 +7585,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7620,7 +7621,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7656,7 +7657,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7692,7 +7693,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7728,7 +7729,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7762,7 +7763,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7796,7 +7797,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7832,7 +7833,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7868,7 +7869,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C197" t="inlineStr">
@@ -7908,7 +7909,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvGenius</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C198" t="inlineStr">
@@ -7964,7 +7965,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8000,7 +8001,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8036,7 +8037,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8072,7 +8073,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8108,7 +8109,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8144,7 +8145,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8182,7 +8183,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8218,7 +8219,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8254,7 +8255,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8290,7 +8291,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8326,7 +8327,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8360,7 +8361,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8394,7 +8395,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8430,7 +8431,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8466,7 +8467,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C213" t="inlineStr">
@@ -8506,7 +8507,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C214" t="inlineStr">
@@ -8562,7 +8563,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8598,7 +8599,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8634,7 +8635,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8670,7 +8671,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8706,7 +8707,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8742,7 +8743,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8780,7 +8781,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8816,7 +8817,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8852,7 +8853,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8888,7 +8889,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8924,7 +8925,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8958,7 +8959,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43049</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8994,7 +8995,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9028,7 +9029,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9064,7 +9065,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9100,7 +9101,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C230" t="inlineStr">
@@ -9140,7 +9141,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43118</v>
       </c>
       <c r="C231" t="inlineStr">
@@ -9180,7 +9181,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C232" t="inlineStr">
@@ -9236,7 +9237,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9272,7 +9273,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9308,7 +9309,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9344,7 +9345,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9380,7 +9381,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9416,7 +9417,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9454,7 +9455,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9490,7 +9491,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9526,7 +9527,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9562,7 +9563,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9598,7 +9599,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9632,7 +9633,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9670,7 +9671,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9706,7 +9707,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9742,7 +9743,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C247" t="inlineStr">
@@ -9782,7 +9783,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43118</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -9822,7 +9823,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C249" t="inlineStr">
@@ -9878,7 +9879,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9914,7 +9915,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9950,7 +9951,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9986,7 +9987,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10022,7 +10023,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10058,7 +10059,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10096,7 +10097,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10132,7 +10133,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10168,7 +10169,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10204,7 +10205,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10240,7 +10241,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10274,7 +10275,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10312,7 +10313,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10348,7 +10349,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10384,7 +10385,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C264" t="inlineStr">
@@ -10424,7 +10425,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43118</v>
       </c>
       <c r="C265" t="inlineStr">
@@ -10464,7 +10465,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C266" t="inlineStr">
@@ -10520,7 +10521,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10556,7 +10557,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10592,7 +10593,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10628,7 +10629,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10664,7 +10665,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10700,7 +10701,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -10738,7 +10739,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10774,7 +10775,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10810,7 +10811,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10846,7 +10847,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10882,7 +10883,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10916,7 +10917,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10950,7 +10951,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10986,7 +10987,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11022,7 +11023,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C281" t="inlineStr">
@@ -11062,7 +11063,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvADV11.9419</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C282" t="inlineStr">
@@ -11118,7 +11119,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11154,7 +11155,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11190,7 +11191,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11226,7 +11227,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11262,7 +11263,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11298,7 +11299,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11336,7 +11337,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11372,7 +11373,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11408,7 +11409,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11444,7 +11445,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11480,7 +11481,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11514,7 +11515,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11552,7 +11553,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11588,7 +11589,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11624,7 +11625,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C297" t="inlineStr">
@@ -11664,7 +11665,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43118</v>
       </c>
       <c r="C298" t="inlineStr">
@@ -11704,7 +11705,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvRevenue</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C299" t="inlineStr">
@@ -11760,7 +11761,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>42901</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11796,7 +11797,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11832,7 +11833,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11868,7 +11869,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>42930</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11904,7 +11905,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11940,7 +11941,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11978,7 +11979,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>42983</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12014,7 +12015,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12050,7 +12051,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12086,7 +12087,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12122,7 +12123,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12156,7 +12157,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>43061</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12190,7 +12191,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>43063</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12226,7 +12227,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12262,7 +12263,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>43112</v>
       </c>
       <c r="C314" t="inlineStr">
@@ -12302,7 +12303,7 @@
           <t>FAR HYC W17-01-2MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C315" t="inlineStr">
